--- a/biology/Botanique/Artabotrys_jacques-felicis/Artabotrys_jacques-felicis.xlsx
+++ b/biology/Botanique/Artabotrys_jacques-felicis/Artabotrys_jacques-felicis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Artabotrys jacques-felicis Pellegr. est une espèce de lianes ligneuses d'Afrique tropicale, de la famille des Annonaceae et du genre Artabotrys.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique jacques-felicis rend hommage au botaniste français Henri Jacques-Félix, qui a récolté des spécimens au Cameroun en 1938[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique jacques-felicis rend hommage au botaniste français Henri Jacques-Félix, qui a récolté des spécimens au Cameroun en 1938.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Très rare, elle a été observées sur deux aires disjointes, l'une dans la Région du Centre au Cameroun (Ndiki, arrondissement de Ndikiniméki), l'autre en République démocratique du Congo[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Très rare, elle a été observées sur deux aires disjointes, l'une dans la Région du Centre au Cameroun (Ndiki, arrondissement de Ndikiniméki), l'autre en République démocratique du Congo.
 </t>
         </is>
       </c>
